--- a/fuentes/contenidos/grado11/guion01/SolicitudGraficaMA_11_01_COREC270.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGraficaMA_11_01_COREC270.xlsx
@@ -2796,7 +2796,7 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
